--- a/Base/Backlog_23.xlsx
+++ b/Base/Backlog_23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEC3888-E3DF-4BD9-90A2-C58A44121FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0508F0-6538-4F83-8913-E0F5BB33896B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SPN" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ITI!$A$1:$J$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ITI!$A$1:$J$48</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SPN!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="29">
   <si>
     <t>Backlog</t>
   </si>
@@ -125,13 +125,16 @@
   </si>
   <si>
     <t>Mara Neves</t>
+  </si>
+  <si>
+    <t>Resolvido</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +177,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -190,7 +199,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -297,6 +306,9 @@
     <xf numFmtId="17" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -307,7 +319,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -624,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
-  <dimension ref="A1:L74"/>
+  <dimension ref="A1:AI73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -647,7 +668,7 @@
     <col min="13" max="16384" width="9.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
@@ -682,7 +703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -704,90 +725,138 @@
       <c r="G2" s="9">
         <v>337498</v>
       </c>
-      <c r="H2" s="27">
+      <c r="H2" s="23">
         <v>45809</v>
       </c>
       <c r="I2" s="10">
         <v>45817</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="9">
-        <v>2025</v>
-      </c>
-      <c r="D3" s="9">
-        <v>23</v>
-      </c>
-      <c r="E3" s="10">
-        <v>45817</v>
-      </c>
-      <c r="F3" s="10">
-        <v>45821</v>
-      </c>
-      <c r="G3" s="9">
+      <c r="C3" s="24">
+        <v>2025</v>
+      </c>
+      <c r="D3" s="24">
+        <v>23</v>
+      </c>
+      <c r="E3" s="25">
+        <v>45817</v>
+      </c>
+      <c r="F3" s="25">
+        <v>45821</v>
+      </c>
+      <c r="G3" s="24">
         <v>336378</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="26">
         <v>45778</v>
       </c>
-      <c r="I3" s="10">
-        <v>45817</v>
-      </c>
-      <c r="J3" s="9" t="s">
+      <c r="I3" s="25">
+        <v>45817</v>
+      </c>
+      <c r="J3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="24" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+    </row>
+    <row r="4" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="9">
-        <v>2025</v>
-      </c>
-      <c r="D4" s="9">
-        <v>23</v>
-      </c>
-      <c r="E4" s="10">
-        <v>45817</v>
-      </c>
-      <c r="F4" s="10">
-        <v>45821</v>
-      </c>
-      <c r="G4" s="9">
+      <c r="C4" s="24">
+        <v>2025</v>
+      </c>
+      <c r="D4" s="24">
+        <v>23</v>
+      </c>
+      <c r="E4" s="25">
+        <v>45817</v>
+      </c>
+      <c r="F4" s="25">
+        <v>45821</v>
+      </c>
+      <c r="G4" s="24">
         <v>337347</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="26">
         <v>45809</v>
       </c>
-      <c r="I4" s="10">
-        <v>45817</v>
-      </c>
-      <c r="J4" s="9" t="s">
+      <c r="I4" s="25">
+        <v>45817</v>
+      </c>
+      <c r="J4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="24" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -809,20 +878,20 @@
       <c r="G5" s="9">
         <v>337437</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="23">
         <v>45809</v>
       </c>
       <c r="I5" s="10">
         <v>45817</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
@@ -844,20 +913,20 @@
       <c r="G6" s="9">
         <v>335419</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="23">
         <v>45778</v>
       </c>
       <c r="I6" s="10">
         <v>45817</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -879,165 +948,261 @@
       <c r="G7" s="9">
         <v>337406</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="23">
         <v>45809</v>
       </c>
       <c r="I7" s="10">
         <v>45817</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+    <row r="8" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="23">
-        <v>2025</v>
-      </c>
-      <c r="D8" s="23">
-        <v>23</v>
-      </c>
-      <c r="E8" s="24">
-        <v>45817</v>
-      </c>
-      <c r="F8" s="24">
-        <v>45821</v>
-      </c>
-      <c r="G8" s="23">
-        <v>331865</v>
-      </c>
-      <c r="H8" s="25">
-        <v>45748</v>
-      </c>
-      <c r="I8" s="24">
-        <v>45817</v>
-      </c>
-      <c r="J8" s="23" t="s">
+      <c r="C8" s="24">
+        <v>2025</v>
+      </c>
+      <c r="D8" s="24">
+        <v>23</v>
+      </c>
+      <c r="E8" s="25">
+        <v>45817</v>
+      </c>
+      <c r="F8" s="25">
+        <v>45821</v>
+      </c>
+      <c r="G8" s="24">
+        <v>335352</v>
+      </c>
+      <c r="H8" s="26">
+        <v>45778</v>
+      </c>
+      <c r="I8" s="25">
+        <v>45817</v>
+      </c>
+      <c r="J8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="23" t="s">
+      <c r="K8" s="24" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+    </row>
+    <row r="9" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="9">
-        <v>2025</v>
-      </c>
-      <c r="D9" s="9">
-        <v>23</v>
-      </c>
-      <c r="E9" s="10">
-        <v>45817</v>
-      </c>
-      <c r="F9" s="10">
-        <v>45821</v>
-      </c>
-      <c r="G9" s="9">
-        <v>335352</v>
-      </c>
-      <c r="H9" s="27">
+      <c r="C9" s="24">
+        <v>2025</v>
+      </c>
+      <c r="D9" s="24">
+        <v>23</v>
+      </c>
+      <c r="E9" s="25">
+        <v>45817</v>
+      </c>
+      <c r="F9" s="25">
+        <v>45821</v>
+      </c>
+      <c r="G9" s="24">
+        <v>336725</v>
+      </c>
+      <c r="H9" s="26">
         <v>45778</v>
       </c>
-      <c r="I9" s="10">
-        <v>45817</v>
-      </c>
-      <c r="J9" s="9" t="s">
+      <c r="I9" s="25">
+        <v>45817</v>
+      </c>
+      <c r="J9" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="24" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+    </row>
+    <row r="10" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="9">
-        <v>2025</v>
-      </c>
-      <c r="D10" s="9">
-        <v>23</v>
-      </c>
-      <c r="E10" s="10">
-        <v>45817</v>
-      </c>
-      <c r="F10" s="10">
-        <v>45821</v>
-      </c>
-      <c r="G10" s="9">
-        <v>336725</v>
-      </c>
-      <c r="H10" s="27">
-        <v>45778</v>
-      </c>
-      <c r="I10" s="10">
-        <v>45817</v>
-      </c>
-      <c r="J10" s="9" t="s">
+      <c r="C10" s="24">
+        <v>2025</v>
+      </c>
+      <c r="D10" s="24">
+        <v>23</v>
+      </c>
+      <c r="E10" s="25">
+        <v>45817</v>
+      </c>
+      <c r="F10" s="25">
+        <v>45821</v>
+      </c>
+      <c r="G10" s="24">
+        <v>336855</v>
+      </c>
+      <c r="H10" s="26">
+        <v>45809</v>
+      </c>
+      <c r="I10" s="25">
+        <v>45817</v>
+      </c>
+      <c r="J10" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="24" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+    </row>
+    <row r="11" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="9">
-        <v>2025</v>
-      </c>
-      <c r="D11" s="9">
-        <v>23</v>
-      </c>
-      <c r="E11" s="10">
-        <v>45817</v>
-      </c>
-      <c r="F11" s="10">
-        <v>45821</v>
-      </c>
-      <c r="G11" s="9">
-        <v>336855</v>
-      </c>
-      <c r="H11" s="27">
+      <c r="C11" s="24">
+        <v>2025</v>
+      </c>
+      <c r="D11" s="24">
+        <v>23</v>
+      </c>
+      <c r="E11" s="25">
+        <v>45817</v>
+      </c>
+      <c r="F11" s="25">
+        <v>45821</v>
+      </c>
+      <c r="G11" s="24">
+        <v>336994</v>
+      </c>
+      <c r="H11" s="26">
         <v>45809</v>
       </c>
-      <c r="I11" s="10">
-        <v>45817</v>
-      </c>
-      <c r="J11" s="9" t="s">
+      <c r="I11" s="25">
+        <v>45817</v>
+      </c>
+      <c r="J11" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="24" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="9">
         <v>2025</v>
@@ -1052,27 +1217,27 @@
         <v>45821</v>
       </c>
       <c r="G12" s="9">
-        <v>336994</v>
-      </c>
-      <c r="H12" s="27">
-        <v>45809</v>
+        <v>333632</v>
+      </c>
+      <c r="H12" s="23">
+        <v>45748</v>
       </c>
       <c r="I12" s="10">
         <v>45817</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C13" s="9">
         <v>2025</v>
@@ -1087,62 +1252,86 @@
         <v>45821</v>
       </c>
       <c r="G13" s="9">
-        <v>333632</v>
-      </c>
-      <c r="H13" s="27">
-        <v>45748</v>
+        <v>337493</v>
+      </c>
+      <c r="H13" s="23">
+        <v>45809</v>
       </c>
       <c r="I13" s="10">
         <v>45817</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="9">
-        <v>2025</v>
-      </c>
-      <c r="D14" s="9">
-        <v>23</v>
-      </c>
-      <c r="E14" s="10">
-        <v>45817</v>
-      </c>
-      <c r="F14" s="10">
-        <v>45821</v>
-      </c>
-      <c r="G14" s="9">
-        <v>337493</v>
-      </c>
-      <c r="H14" s="27">
+      <c r="C14" s="24">
+        <v>2025</v>
+      </c>
+      <c r="D14" s="24">
+        <v>23</v>
+      </c>
+      <c r="E14" s="25">
+        <v>45817</v>
+      </c>
+      <c r="F14" s="25">
+        <v>45821</v>
+      </c>
+      <c r="G14" s="24">
+        <v>337530</v>
+      </c>
+      <c r="H14" s="26">
         <v>45809</v>
       </c>
-      <c r="I14" s="10">
-        <v>45817</v>
-      </c>
-      <c r="J14" s="9" t="s">
+      <c r="I14" s="25">
+        <v>45817</v>
+      </c>
+      <c r="J14" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="24" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C15" s="9">
         <v>2025</v>
@@ -1157,22 +1346,22 @@
         <v>45821</v>
       </c>
       <c r="G15" s="9">
-        <v>337530</v>
-      </c>
-      <c r="H15" s="27">
+        <v>337481</v>
+      </c>
+      <c r="H15" s="23">
         <v>45809</v>
       </c>
       <c r="I15" s="10">
         <v>45817</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K15" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>4</v>
       </c>
@@ -1192,22 +1381,22 @@
         <v>45821</v>
       </c>
       <c r="G16" s="9">
-        <v>337481</v>
-      </c>
-      <c r="H16" s="27">
+        <v>336908</v>
+      </c>
+      <c r="H16" s="23">
         <v>45809</v>
       </c>
       <c r="I16" s="10">
         <v>45817</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>4</v>
       </c>
@@ -1227,22 +1416,22 @@
         <v>45821</v>
       </c>
       <c r="G17" s="9">
-        <v>336908</v>
-      </c>
-      <c r="H17" s="27">
+        <v>337188</v>
+      </c>
+      <c r="H17" s="23">
         <v>45809</v>
       </c>
       <c r="I17" s="10">
         <v>45817</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K17" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>4</v>
       </c>
@@ -1262,57 +1451,81 @@
         <v>45821</v>
       </c>
       <c r="G18" s="9">
-        <v>337188</v>
-      </c>
-      <c r="H18" s="27">
+        <v>337111</v>
+      </c>
+      <c r="H18" s="23">
         <v>45809</v>
       </c>
       <c r="I18" s="10">
         <v>45817</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K18" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="9">
-        <v>2025</v>
-      </c>
-      <c r="D19" s="9">
-        <v>23</v>
-      </c>
-      <c r="E19" s="10">
-        <v>45817</v>
-      </c>
-      <c r="F19" s="10">
-        <v>45821</v>
-      </c>
-      <c r="G19" s="9">
-        <v>337111</v>
-      </c>
-      <c r="H19" s="27">
+        <v>23</v>
+      </c>
+      <c r="C19" s="24">
+        <v>2025</v>
+      </c>
+      <c r="D19" s="24">
+        <v>23</v>
+      </c>
+      <c r="E19" s="25">
+        <v>45817</v>
+      </c>
+      <c r="F19" s="25">
+        <v>45821</v>
+      </c>
+      <c r="G19" s="24">
+        <v>337312</v>
+      </c>
+      <c r="H19" s="26">
         <v>45809</v>
       </c>
-      <c r="I19" s="10">
-        <v>45817</v>
-      </c>
-      <c r="J19" s="9" t="s">
+      <c r="I19" s="25">
+        <v>45817</v>
+      </c>
+      <c r="J19" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="K19" s="24" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>4</v>
       </c>
@@ -1332,27 +1545,27 @@
         <v>45821</v>
       </c>
       <c r="G20" s="9">
-        <v>337312</v>
-      </c>
-      <c r="H20" s="27">
+        <v>337165</v>
+      </c>
+      <c r="H20" s="23">
         <v>45809</v>
       </c>
       <c r="I20" s="10">
         <v>45817</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K20" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C21" s="9">
         <v>2025</v>
@@ -1367,62 +1580,86 @@
         <v>45821</v>
       </c>
       <c r="G21" s="9">
-        <v>337165</v>
-      </c>
-      <c r="H21" s="27">
-        <v>45809</v>
+        <v>335952</v>
+      </c>
+      <c r="H21" s="23">
+        <v>45778</v>
       </c>
       <c r="I21" s="10">
         <v>45817</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K21" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="9">
-        <v>2025</v>
-      </c>
-      <c r="D22" s="9">
-        <v>23</v>
-      </c>
-      <c r="E22" s="10">
-        <v>45817</v>
-      </c>
-      <c r="F22" s="10">
-        <v>45821</v>
-      </c>
-      <c r="G22" s="9">
-        <v>335952</v>
-      </c>
-      <c r="H22" s="27">
-        <v>45778</v>
-      </c>
-      <c r="I22" s="10">
-        <v>45817</v>
-      </c>
-      <c r="J22" s="9" t="s">
+      <c r="C22" s="24">
+        <v>2025</v>
+      </c>
+      <c r="D22" s="24">
+        <v>23</v>
+      </c>
+      <c r="E22" s="25">
+        <v>45817</v>
+      </c>
+      <c r="F22" s="25">
+        <v>45821</v>
+      </c>
+      <c r="G22" s="24">
+        <v>337014</v>
+      </c>
+      <c r="H22" s="26">
+        <v>45809</v>
+      </c>
+      <c r="I22" s="25">
+        <v>45817</v>
+      </c>
+      <c r="J22" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="K22" s="24" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C23" s="9">
         <v>2025</v>
@@ -1437,57 +1674,81 @@
         <v>45821</v>
       </c>
       <c r="G23" s="9">
-        <v>337014</v>
-      </c>
-      <c r="H23" s="27">
+        <v>337489</v>
+      </c>
+      <c r="H23" s="23">
         <v>45809</v>
       </c>
       <c r="I23" s="10">
         <v>45817</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K23" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="9">
-        <v>2025</v>
-      </c>
-      <c r="D24" s="9">
-        <v>23</v>
-      </c>
-      <c r="E24" s="10">
-        <v>45817</v>
-      </c>
-      <c r="F24" s="10">
-        <v>45821</v>
-      </c>
-      <c r="G24" s="9">
-        <v>337489</v>
-      </c>
-      <c r="H24" s="27">
-        <v>45809</v>
-      </c>
-      <c r="I24" s="10">
-        <v>45817</v>
-      </c>
-      <c r="J24" s="9" t="s">
+      <c r="C24" s="24">
+        <v>2025</v>
+      </c>
+      <c r="D24" s="24">
+        <v>23</v>
+      </c>
+      <c r="E24" s="25">
+        <v>45817</v>
+      </c>
+      <c r="F24" s="25">
+        <v>45821</v>
+      </c>
+      <c r="G24" s="24">
+        <v>335326</v>
+      </c>
+      <c r="H24" s="26">
+        <v>45778</v>
+      </c>
+      <c r="I24" s="25">
+        <v>45817</v>
+      </c>
+      <c r="J24" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="K24" s="9" t="s">
+      <c r="K24" s="24" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>4</v>
       </c>
@@ -1507,57 +1768,30 @@
         <v>45821</v>
       </c>
       <c r="G25" s="9">
-        <v>335326</v>
-      </c>
-      <c r="H25" s="27">
+        <v>336695</v>
+      </c>
+      <c r="H25" s="23">
         <v>45778</v>
       </c>
       <c r="I25" s="10">
         <v>45817</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K25" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="9">
-        <v>2025</v>
-      </c>
-      <c r="D26" s="9">
-        <v>23</v>
-      </c>
-      <c r="E26" s="10">
-        <v>45817</v>
-      </c>
-      <c r="F26" s="10">
-        <v>45821</v>
-      </c>
-      <c r="G26" s="9">
-        <v>336695</v>
-      </c>
-      <c r="H26" s="27">
-        <v>45778</v>
-      </c>
-      <c r="I26" s="10">
-        <v>45817</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="12"/>
@@ -1565,7 +1799,7 @@
       <c r="I27" s="8"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="12"/>
@@ -1573,15 +1807,15 @@
       <c r="I28" s="8"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="12"/>
+      <c r="G29" s="13"/>
       <c r="H29" s="2"/>
       <c r="I29" s="8"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="13"/>
@@ -1589,7 +1823,7 @@
       <c r="I30" s="8"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="13"/>
@@ -1597,7 +1831,7 @@
       <c r="I31" s="8"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="13"/>
@@ -1606,26 +1840,25 @@
       <c r="J32" s="7"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="7"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="11"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="11"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="7"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E35" s="8"/>
@@ -1727,12 +1960,13 @@
     </row>
     <row r="49" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
+      <c r="F49" s="6"/>
       <c r="H49" s="2"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="7"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="3"/>
     </row>
     <row r="50" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D50" s="3"/>
       <c r="E50" s="8"/>
       <c r="F50" s="6"/>
       <c r="H50" s="2"/>
@@ -1749,7 +1983,7 @@
     </row>
     <row r="52" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D52" s="3"/>
-      <c r="E52" s="8"/>
+      <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="H52" s="2"/>
       <c r="I52" s="6"/>
@@ -1760,21 +1994,20 @@
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="H53" s="2"/>
-      <c r="I53" s="6"/>
       <c r="J53" s="3"/>
     </row>
     <row r="54" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D54" s="3"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
-      <c r="H54" s="2"/>
-      <c r="J54" s="3"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="7"/>
     </row>
     <row r="55" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D55" s="3"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
-      <c r="H55" s="6"/>
       <c r="I55" s="6"/>
       <c r="J55" s="7"/>
     </row>
@@ -1794,7 +2027,6 @@
     </row>
     <row r="58" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D58" s="3"/>
-      <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="I58" s="6"/>
       <c r="J58" s="7"/>
@@ -1818,7 +2050,6 @@
       <c r="J61" s="7"/>
     </row>
     <row r="62" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D62" s="3"/>
       <c r="F62" s="6"/>
       <c r="I62" s="6"/>
       <c r="J62" s="7"/>
@@ -1831,7 +2062,6 @@
     <row r="64" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F64" s="6"/>
       <c r="I64" s="6"/>
-      <c r="J64" s="7"/>
     </row>
     <row r="65" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F65" s="6"/>
@@ -1869,14 +2099,10 @@
       <c r="F73" s="6"/>
       <c r="I73" s="6"/>
     </row>
-    <row r="74" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F74" s="6"/>
-      <c r="I74" s="6"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:J49" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J49">
-      <sortCondition ref="B1:B49"/>
+  <autoFilter ref="A1:J48" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J48">
+      <sortCondition ref="B1:B48"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1890,7 +2116,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1973,79 +2199,79 @@
         <v>45817</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K2" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="21">
-        <v>2025</v>
-      </c>
-      <c r="D3" s="9">
-        <v>23</v>
-      </c>
-      <c r="E3" s="10">
-        <v>45817</v>
-      </c>
-      <c r="F3" s="10">
-        <v>45821</v>
-      </c>
-      <c r="G3" s="21">
+      <c r="C3" s="28">
+        <v>2025</v>
+      </c>
+      <c r="D3" s="29">
+        <v>23</v>
+      </c>
+      <c r="E3" s="30">
+        <v>45817</v>
+      </c>
+      <c r="F3" s="30">
+        <v>45821</v>
+      </c>
+      <c r="G3" s="28">
         <v>336691</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="31">
         <v>45778</v>
       </c>
-      <c r="I3" s="10">
-        <v>45817</v>
-      </c>
-      <c r="J3" s="21" t="s">
+      <c r="I3" s="30">
+        <v>45817</v>
+      </c>
+      <c r="J3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="28" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="21">
-        <v>2025</v>
-      </c>
-      <c r="D4" s="9">
-        <v>23</v>
-      </c>
-      <c r="E4" s="10">
-        <v>45817</v>
-      </c>
-      <c r="F4" s="10">
-        <v>45821</v>
-      </c>
-      <c r="G4" s="21">
+      <c r="C4" s="28">
+        <v>2025</v>
+      </c>
+      <c r="D4" s="29">
+        <v>23</v>
+      </c>
+      <c r="E4" s="30">
+        <v>45817</v>
+      </c>
+      <c r="F4" s="30">
+        <v>45821</v>
+      </c>
+      <c r="G4" s="28">
         <v>337182</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="31">
         <v>45809</v>
       </c>
-      <c r="I4" s="10">
-        <v>45817</v>
-      </c>
-      <c r="J4" s="21" t="s">
+      <c r="I4" s="30">
+        <v>45817</v>
+      </c>
+      <c r="J4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="28" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2078,7 +2304,7 @@
         <v>45817</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K5" s="21" t="s">
         <v>15</v>
@@ -2091,8 +2317,8 @@
       <c r="B6" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="21">
-        <v>2025</v>
+      <c r="C6" s="21" t="s">
+        <v>25</v>
       </c>
       <c r="D6" s="9">
         <v>23</v>
@@ -2113,7 +2339,7 @@
         <v>45817</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K6" s="21" t="s">
         <v>15</v>
@@ -2148,7 +2374,7 @@
         <v>45817</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K7" s="21" t="s">
         <v>15</v>
@@ -2183,7 +2409,7 @@
         <v>45817</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K8" s="21" t="s">
         <v>15</v>
@@ -2218,7 +2444,7 @@
         <v>45817</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K9" s="21" t="s">
         <v>15</v>
@@ -2253,7 +2479,7 @@
         <v>45817</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K10" s="21" t="s">
         <v>15</v>

--- a/Base/Backlog_23.xlsx
+++ b/Base/Backlog_23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0508F0-6538-4F83-8913-E0F5BB33896B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A6CDC2-9EED-43F6-B555-05F26C05C071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
   <sheets>
     <sheet name="ITI" sheetId="2" r:id="rId1"/>
@@ -184,24 +184,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -246,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -297,9 +285,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -309,26 +294,19 @@
     <xf numFmtId="17" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -645,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
-  <dimension ref="A1:AI73"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -668,7 +646,7 @@
     <col min="13" max="16384" width="9.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
@@ -703,7 +681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:35" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -725,7 +703,7 @@
       <c r="G2" s="9">
         <v>337498</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="22">
         <v>45809</v>
       </c>
       <c r="I2" s="10">
@@ -738,125 +716,77 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="24">
-        <v>2025</v>
-      </c>
-      <c r="D3" s="24">
-        <v>23</v>
-      </c>
-      <c r="E3" s="25">
-        <v>45817</v>
-      </c>
-      <c r="F3" s="25">
-        <v>45821</v>
-      </c>
-      <c r="G3" s="24">
+      <c r="C3" s="9">
+        <v>2025</v>
+      </c>
+      <c r="D3" s="9">
+        <v>23</v>
+      </c>
+      <c r="E3" s="10">
+        <v>45817</v>
+      </c>
+      <c r="F3" s="10">
+        <v>45821</v>
+      </c>
+      <c r="G3" s="9">
         <v>336378</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="22">
         <v>45778</v>
       </c>
-      <c r="I3" s="25">
-        <v>45817</v>
-      </c>
-      <c r="J3" s="24" t="s">
+      <c r="I3" s="10">
+        <v>45817</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
-    </row>
-    <row r="4" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="24">
-        <v>2025</v>
-      </c>
-      <c r="D4" s="24">
-        <v>23</v>
-      </c>
-      <c r="E4" s="25">
-        <v>45817</v>
-      </c>
-      <c r="F4" s="25">
-        <v>45821</v>
-      </c>
-      <c r="G4" s="24">
+      <c r="C4" s="9">
+        <v>2025</v>
+      </c>
+      <c r="D4" s="9">
+        <v>23</v>
+      </c>
+      <c r="E4" s="10">
+        <v>45817</v>
+      </c>
+      <c r="F4" s="10">
+        <v>45821</v>
+      </c>
+      <c r="G4" s="9">
         <v>337347</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="22">
         <v>45809</v>
       </c>
-      <c r="I4" s="25">
-        <v>45817</v>
-      </c>
-      <c r="J4" s="24" t="s">
+      <c r="I4" s="10">
+        <v>45817</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="1"/>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -878,7 +808,7 @@
       <c r="G5" s="9">
         <v>337437</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="22">
         <v>45809</v>
       </c>
       <c r="I5" s="10">
@@ -891,7 +821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
@@ -913,7 +843,7 @@
       <c r="G6" s="9">
         <v>335419</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="22">
         <v>45778</v>
       </c>
       <c r="I6" s="10">
@@ -926,7 +856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -948,7 +878,7 @@
       <c r="G7" s="9">
         <v>337406</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="22">
         <v>45809</v>
       </c>
       <c r="I7" s="10">
@@ -961,243 +891,147 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="24">
-        <v>2025</v>
-      </c>
-      <c r="D8" s="24">
-        <v>23</v>
-      </c>
-      <c r="E8" s="25">
-        <v>45817</v>
-      </c>
-      <c r="F8" s="25">
-        <v>45821</v>
-      </c>
-      <c r="G8" s="24">
+      <c r="C8" s="9">
+        <v>2025</v>
+      </c>
+      <c r="D8" s="9">
+        <v>23</v>
+      </c>
+      <c r="E8" s="10">
+        <v>45817</v>
+      </c>
+      <c r="F8" s="10">
+        <v>45821</v>
+      </c>
+      <c r="G8" s="9">
         <v>335352</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="22">
         <v>45778</v>
       </c>
-      <c r="I8" s="25">
-        <v>45817</v>
-      </c>
-      <c r="J8" s="24" t="s">
+      <c r="I8" s="10">
+        <v>45817</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="24" t="s">
+      <c r="K8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
-      <c r="AI8" s="1"/>
-    </row>
-    <row r="9" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="24">
-        <v>2025</v>
-      </c>
-      <c r="D9" s="24">
-        <v>23</v>
-      </c>
-      <c r="E9" s="25">
-        <v>45817</v>
-      </c>
-      <c r="F9" s="25">
-        <v>45821</v>
-      </c>
-      <c r="G9" s="24">
+      <c r="C9" s="9">
+        <v>2025</v>
+      </c>
+      <c r="D9" s="9">
+        <v>23</v>
+      </c>
+      <c r="E9" s="10">
+        <v>45817</v>
+      </c>
+      <c r="F9" s="10">
+        <v>45821</v>
+      </c>
+      <c r="G9" s="9">
         <v>336725</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="22">
         <v>45778</v>
       </c>
-      <c r="I9" s="25">
-        <v>45817</v>
-      </c>
-      <c r="J9" s="24" t="s">
+      <c r="I9" s="10">
+        <v>45817</v>
+      </c>
+      <c r="J9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="24" t="s">
+      <c r="K9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
-    </row>
-    <row r="10" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="24">
-        <v>2025</v>
-      </c>
-      <c r="D10" s="24">
-        <v>23</v>
-      </c>
-      <c r="E10" s="25">
-        <v>45817</v>
-      </c>
-      <c r="F10" s="25">
-        <v>45821</v>
-      </c>
-      <c r="G10" s="24">
+      <c r="C10" s="9">
+        <v>2025</v>
+      </c>
+      <c r="D10" s="9">
+        <v>23</v>
+      </c>
+      <c r="E10" s="10">
+        <v>45817</v>
+      </c>
+      <c r="F10" s="10">
+        <v>45821</v>
+      </c>
+      <c r="G10" s="9">
         <v>336855</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="22">
         <v>45809</v>
       </c>
-      <c r="I10" s="25">
-        <v>45817</v>
-      </c>
-      <c r="J10" s="24" t="s">
+      <c r="I10" s="10">
+        <v>45817</v>
+      </c>
+      <c r="J10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="24" t="s">
+      <c r="K10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-    </row>
-    <row r="11" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="24">
-        <v>2025</v>
-      </c>
-      <c r="D11" s="24">
-        <v>23</v>
-      </c>
-      <c r="E11" s="25">
-        <v>45817</v>
-      </c>
-      <c r="F11" s="25">
-        <v>45821</v>
-      </c>
-      <c r="G11" s="24">
+      <c r="C11" s="9">
+        <v>2025</v>
+      </c>
+      <c r="D11" s="9">
+        <v>23</v>
+      </c>
+      <c r="E11" s="10">
+        <v>45817</v>
+      </c>
+      <c r="F11" s="10">
+        <v>45821</v>
+      </c>
+      <c r="G11" s="9">
         <v>336994</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="22">
         <v>45809</v>
       </c>
-      <c r="I11" s="25">
-        <v>45817</v>
-      </c>
-      <c r="J11" s="24" t="s">
+      <c r="I11" s="10">
+        <v>45817</v>
+      </c>
+      <c r="J11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="24" t="s">
+      <c r="K11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="1"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>4</v>
       </c>
@@ -1219,7 +1053,7 @@
       <c r="G12" s="9">
         <v>333632</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="22">
         <v>45748</v>
       </c>
       <c r="I12" s="10">
@@ -1232,7 +1066,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>4</v>
       </c>
@@ -1254,7 +1088,7 @@
       <c r="G13" s="9">
         <v>337493</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="22">
         <v>45809</v>
       </c>
       <c r="I13" s="10">
@@ -1267,66 +1101,42 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="24">
-        <v>2025</v>
-      </c>
-      <c r="D14" s="24">
-        <v>23</v>
-      </c>
-      <c r="E14" s="25">
-        <v>45817</v>
-      </c>
-      <c r="F14" s="25">
-        <v>45821</v>
-      </c>
-      <c r="G14" s="24">
+      <c r="C14" s="9">
+        <v>2025</v>
+      </c>
+      <c r="D14" s="9">
+        <v>23</v>
+      </c>
+      <c r="E14" s="10">
+        <v>45817</v>
+      </c>
+      <c r="F14" s="10">
+        <v>45821</v>
+      </c>
+      <c r="G14" s="9">
         <v>337530</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="22">
         <v>45809</v>
       </c>
-      <c r="I14" s="25">
-        <v>45817</v>
-      </c>
-      <c r="J14" s="24" t="s">
+      <c r="I14" s="10">
+        <v>45817</v>
+      </c>
+      <c r="J14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="24" t="s">
+      <c r="K14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="1"/>
-      <c r="AI14" s="1"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>4</v>
       </c>
@@ -1348,7 +1158,7 @@
       <c r="G15" s="9">
         <v>337481</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="22">
         <v>45809</v>
       </c>
       <c r="I15" s="10">
@@ -1361,7 +1171,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>4</v>
       </c>
@@ -1383,7 +1193,7 @@
       <c r="G16" s="9">
         <v>336908</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="22">
         <v>45809</v>
       </c>
       <c r="I16" s="10">
@@ -1396,7 +1206,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>4</v>
       </c>
@@ -1418,7 +1228,7 @@
       <c r="G17" s="9">
         <v>337188</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="22">
         <v>45809</v>
       </c>
       <c r="I17" s="10">
@@ -1431,7 +1241,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>4</v>
       </c>
@@ -1453,7 +1263,7 @@
       <c r="G18" s="9">
         <v>337111</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="22">
         <v>45809</v>
       </c>
       <c r="I18" s="10">
@@ -1466,66 +1276,42 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="24">
-        <v>2025</v>
-      </c>
-      <c r="D19" s="24">
-        <v>23</v>
-      </c>
-      <c r="E19" s="25">
-        <v>45817</v>
-      </c>
-      <c r="F19" s="25">
-        <v>45821</v>
-      </c>
-      <c r="G19" s="24">
+      <c r="C19" s="9">
+        <v>2025</v>
+      </c>
+      <c r="D19" s="9">
+        <v>23</v>
+      </c>
+      <c r="E19" s="10">
+        <v>45817</v>
+      </c>
+      <c r="F19" s="10">
+        <v>45821</v>
+      </c>
+      <c r="G19" s="9">
         <v>337312</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="22">
         <v>45809</v>
       </c>
-      <c r="I19" s="25">
-        <v>45817</v>
-      </c>
-      <c r="J19" s="24" t="s">
+      <c r="I19" s="10">
+        <v>45817</v>
+      </c>
+      <c r="J19" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="24" t="s">
+      <c r="K19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
-      <c r="AI19" s="1"/>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>4</v>
       </c>
@@ -1547,7 +1333,7 @@
       <c r="G20" s="9">
         <v>337165</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="22">
         <v>45809</v>
       </c>
       <c r="I20" s="10">
@@ -1560,7 +1346,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>4</v>
       </c>
@@ -1582,7 +1368,7 @@
       <c r="G21" s="9">
         <v>335952</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="22">
         <v>45778</v>
       </c>
       <c r="I21" s="10">
@@ -1595,66 +1381,42 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="24">
-        <v>2025</v>
-      </c>
-      <c r="D22" s="24">
-        <v>23</v>
-      </c>
-      <c r="E22" s="25">
-        <v>45817</v>
-      </c>
-      <c r="F22" s="25">
-        <v>45821</v>
-      </c>
-      <c r="G22" s="24">
+      <c r="C22" s="9">
+        <v>2025</v>
+      </c>
+      <c r="D22" s="9">
+        <v>23</v>
+      </c>
+      <c r="E22" s="10">
+        <v>45817</v>
+      </c>
+      <c r="F22" s="10">
+        <v>45821</v>
+      </c>
+      <c r="G22" s="9">
         <v>337014</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H22" s="22">
         <v>45809</v>
       </c>
-      <c r="I22" s="25">
-        <v>45817</v>
-      </c>
-      <c r="J22" s="24" t="s">
+      <c r="I22" s="10">
+        <v>45817</v>
+      </c>
+      <c r="J22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K22" s="24" t="s">
+      <c r="K22" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
-      <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
-      <c r="AH22" s="1"/>
-      <c r="AI22" s="1"/>
-    </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>4</v>
       </c>
@@ -1676,7 +1438,7 @@
       <c r="G23" s="9">
         <v>337489</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="22">
         <v>45809</v>
       </c>
       <c r="I23" s="10">
@@ -1689,66 +1451,42 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="24">
-        <v>2025</v>
-      </c>
-      <c r="D24" s="24">
-        <v>23</v>
-      </c>
-      <c r="E24" s="25">
-        <v>45817</v>
-      </c>
-      <c r="F24" s="25">
-        <v>45821</v>
-      </c>
-      <c r="G24" s="24">
+      <c r="C24" s="9">
+        <v>2025</v>
+      </c>
+      <c r="D24" s="9">
+        <v>23</v>
+      </c>
+      <c r="E24" s="10">
+        <v>45817</v>
+      </c>
+      <c r="F24" s="10">
+        <v>45821</v>
+      </c>
+      <c r="G24" s="9">
         <v>335326</v>
       </c>
-      <c r="H24" s="26">
+      <c r="H24" s="22">
         <v>45778</v>
       </c>
-      <c r="I24" s="25">
-        <v>45817</v>
-      </c>
-      <c r="J24" s="24" t="s">
+      <c r="I24" s="10">
+        <v>45817</v>
+      </c>
+      <c r="J24" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K24" s="24" t="s">
+      <c r="K24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="1"/>
-      <c r="AG24" s="1"/>
-      <c r="AH24" s="1"/>
-      <c r="AI24" s="1"/>
-    </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>4</v>
       </c>
@@ -1770,7 +1508,7 @@
       <c r="G25" s="9">
         <v>336695</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="22">
         <v>45778</v>
       </c>
       <c r="I25" s="10">
@@ -1783,7 +1521,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="12"/>
@@ -1791,7 +1529,7 @@
       <c r="I26" s="8"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="12"/>
@@ -1799,7 +1537,7 @@
       <c r="I27" s="8"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="12"/>
@@ -1807,7 +1545,7 @@
       <c r="I28" s="8"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="13"/>
@@ -1815,7 +1553,7 @@
       <c r="I29" s="8"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="13"/>
@@ -1823,7 +1561,7 @@
       <c r="I30" s="8"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="13"/>
@@ -1831,7 +1569,7 @@
       <c r="I31" s="8"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="13"/>
@@ -2115,8 +1853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A6A408-5BF6-4E16-8C71-EC6EB1F5A842}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2136,48 +1874,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="20">
         <v>2025</v>
       </c>
       <c r="D2" s="9">
@@ -2189,100 +1927,100 @@
       <c r="F2" s="10">
         <v>45821</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="20">
         <v>337286</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="21">
         <v>45809</v>
       </c>
       <c r="I2" s="10">
         <v>45817</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="28">
-        <v>2025</v>
-      </c>
-      <c r="D3" s="29">
-        <v>23</v>
-      </c>
-      <c r="E3" s="30">
-        <v>45817</v>
-      </c>
-      <c r="F3" s="30">
-        <v>45821</v>
-      </c>
-      <c r="G3" s="28">
+      <c r="C3" s="24">
+        <v>2025</v>
+      </c>
+      <c r="D3" s="25">
+        <v>23</v>
+      </c>
+      <c r="E3" s="26">
+        <v>45817</v>
+      </c>
+      <c r="F3" s="26">
+        <v>45821</v>
+      </c>
+      <c r="G3" s="24">
         <v>336691</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="27">
         <v>45778</v>
       </c>
-      <c r="I3" s="30">
-        <v>45817</v>
-      </c>
-      <c r="J3" s="28" t="s">
+      <c r="I3" s="26">
+        <v>45817</v>
+      </c>
+      <c r="J3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="24" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="28">
-        <v>2025</v>
-      </c>
-      <c r="D4" s="29">
-        <v>23</v>
-      </c>
-      <c r="E4" s="30">
-        <v>45817</v>
-      </c>
-      <c r="F4" s="30">
-        <v>45821</v>
-      </c>
-      <c r="G4" s="28">
+      <c r="C4" s="24">
+        <v>2025</v>
+      </c>
+      <c r="D4" s="25">
+        <v>23</v>
+      </c>
+      <c r="E4" s="26">
+        <v>45817</v>
+      </c>
+      <c r="F4" s="26">
+        <v>45821</v>
+      </c>
+      <c r="G4" s="24">
         <v>337182</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="27">
         <v>45809</v>
       </c>
-      <c r="I4" s="30">
-        <v>45817</v>
-      </c>
-      <c r="J4" s="28" t="s">
+      <c r="I4" s="26">
+        <v>45817</v>
+      </c>
+      <c r="J4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="24" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <v>2025</v>
       </c>
       <c r="D5" s="9">
@@ -2294,30 +2032,30 @@
       <c r="F5" s="10">
         <v>45821</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="20">
         <v>337123</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="21">
         <v>45809</v>
       </c>
       <c r="I5" s="10">
         <v>45817</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="9">
@@ -2329,30 +2067,30 @@
       <c r="F6" s="10">
         <v>45821</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="20">
         <v>337068</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="21">
         <v>45809</v>
       </c>
       <c r="I6" s="10">
         <v>45817</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="J6" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="K6" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <v>2025</v>
       </c>
       <c r="D7" s="9">
@@ -2364,30 +2102,30 @@
       <c r="F7" s="10">
         <v>45821</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="20">
         <v>337408</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="21">
         <v>45809</v>
       </c>
       <c r="I7" s="10">
         <v>45817</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <v>2025</v>
       </c>
       <c r="D8" s="9">
@@ -2399,30 +2137,30 @@
       <c r="F8" s="10">
         <v>45821</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="20">
         <v>337413</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="21">
         <v>45809</v>
       </c>
       <c r="I8" s="10">
         <v>45817</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="K8" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <v>2025</v>
       </c>
       <c r="D9" s="9">
@@ -2434,30 +2172,30 @@
       <c r="F9" s="10">
         <v>45821</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="20">
         <v>337397</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="21">
         <v>45809</v>
       </c>
       <c r="I9" s="10">
         <v>45817</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="J9" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="K9" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="20">
         <v>2025</v>
       </c>
       <c r="D10" s="9">
@@ -2469,19 +2207,19 @@
       <c r="F10" s="10">
         <v>45821</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="20">
         <v>337492</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="21">
         <v>45809</v>
       </c>
       <c r="I10" s="10">
         <v>45817</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="J10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="K10" s="20" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Base/Backlog_23.xlsx
+++ b/Base/Backlog_23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A6CDC2-9EED-43F6-B555-05F26C05C071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4AB121-3AB3-4E99-96F2-A0204876F0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
   <sheets>
     <sheet name="ITI" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="29">
   <si>
     <t>Backlog</t>
   </si>
@@ -623,10 +623,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection sqref="A1:K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -681,7 +682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -751,7 +752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -786,7 +787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -821,7 +822,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
@@ -856,7 +857,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -961,7 +962,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>4</v>
       </c>
@@ -996,7 +997,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>4</v>
       </c>
@@ -1031,7 +1032,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>4</v>
       </c>
@@ -1066,7 +1067,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>4</v>
       </c>
@@ -1101,7 +1102,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>4</v>
       </c>
@@ -1136,7 +1137,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>4</v>
       </c>
@@ -1171,7 +1172,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>4</v>
       </c>
@@ -1206,7 +1207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>4</v>
       </c>
@@ -1241,7 +1242,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>4</v>
       </c>
@@ -1276,7 +1277,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>4</v>
       </c>
@@ -1311,7 +1312,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>4</v>
       </c>
@@ -1346,7 +1347,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>4</v>
       </c>
@@ -1381,7 +1382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>4</v>
       </c>
@@ -1416,7 +1417,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>4</v>
       </c>
@@ -1486,7 +1487,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>4</v>
       </c>
@@ -1521,7 +1522,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="12"/>
@@ -1529,7 +1530,7 @@
       <c r="I26" s="8"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="12"/>
@@ -1537,7 +1538,7 @@
       <c r="I27" s="8"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="12"/>
@@ -1545,7 +1546,7 @@
       <c r="I28" s="8"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="13"/>
@@ -1553,7 +1554,7 @@
       <c r="I29" s="8"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="13"/>
@@ -1561,7 +1562,7 @@
       <c r="I30" s="8"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="13"/>
@@ -1569,7 +1570,7 @@
       <c r="I31" s="8"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="13"/>
@@ -1577,7 +1578,7 @@
       <c r="I32" s="8"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -1591,105 +1592,105 @@
       <c r="K33" s="14"/>
       <c r="L33" s="11"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="H34" s="2"/>
       <c r="I34" s="8"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="H35" s="2"/>
       <c r="I35" s="8"/>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="H36" s="2"/>
       <c r="I36" s="8"/>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="H37" s="2"/>
       <c r="I37" s="8"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="H38" s="2"/>
       <c r="I38" s="8"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="H39" s="2"/>
       <c r="I39" s="8"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="H40" s="2"/>
       <c r="I40" s="8"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="H41" s="2"/>
       <c r="I41" s="8"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="H42" s="2"/>
       <c r="I42" s="8"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="H43" s="2"/>
       <c r="I43" s="8"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="H44" s="2"/>
       <c r="I44" s="8"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="H45" s="2"/>
       <c r="I45" s="8"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="H46" s="2"/>
       <c r="I46" s="8"/>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="H47" s="2"/>
       <c r="I47" s="8"/>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="H48" s="2"/>
@@ -1839,6 +1840,16 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J48" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
+    <filterColumn colId="7">
+      <filters>
+        <dateGroupItem year="2025" month="5" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="9">
+      <filters>
+        <filter val="Pendente"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J48">
       <sortCondition ref="B1:B48"/>
     </sortState>
@@ -1854,14 +1865,14 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.140625" style="5" bestFit="1" customWidth="1"/>
@@ -2055,8 +2066,8 @@
       <c r="B6" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>25</v>
+      <c r="C6" s="20">
+        <v>2025</v>
       </c>
       <c r="D6" s="9">
         <v>23</v>
